--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1ABBE2-A040-4850-9D7B-059B83099915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE9A1E-9041-4008-A2B5-409E3A5B3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1410" yWindow="1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,7 +919,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="5">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>120</v>
       </c>
       <c r="F15" s="5">
-        <v>300</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>110</v>
       </c>
       <c r="F17" s="5">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="5">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>110</v>
       </c>
       <c r="F20" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="5">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>110</v>
       </c>
       <c r="F23" s="5">
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="5">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>110</v>
       </c>
       <c r="F26" s="5">
-        <v>290</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="5">
-        <v>1270</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="6">
-        <v>3600</v>
+        <v>10000</v>
       </c>
       <c r="F36" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1359,10 +1359,10 @@
         <v>47</v>
       </c>
       <c r="E39" s="6">
-        <v>4500</v>
+        <v>150000</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -1413,10 +1413,10 @@
         <v>50</v>
       </c>
       <c r="E42" s="6">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="F42" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H42" s="6"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE9A1E-9041-4008-A2B5-409E3A5B3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD108437-D25D-4A06-8D80-3EA3882CAC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -197,31 +197,97 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>蝙蝠2</t>
+  </si>
+  <si>
+    <t>蝙蝠3</t>
+  </si>
+  <si>
+    <t>蜘蛛1</t>
+  </si>
+  <si>
+    <t>蜘蛛2</t>
+  </si>
+  <si>
+    <t>蜘蛛3</t>
+  </si>
+  <si>
+    <t>暗影蛋1</t>
+  </si>
+  <si>
+    <t>暗影蛋2</t>
+  </si>
+  <si>
+    <t>暗影蛋3</t>
+  </si>
+  <si>
     <t>蝙蝠1</t>
-  </si>
-  <si>
-    <t>蝙蝠2</t>
-  </si>
-  <si>
-    <t>蝙蝠3</t>
-  </si>
-  <si>
-    <t>蜘蛛1</t>
-  </si>
-  <si>
-    <t>蜘蛛2</t>
-  </si>
-  <si>
-    <t>蜘蛛3</t>
-  </si>
-  <si>
-    <t>暗影蛋1</t>
-  </si>
-  <si>
-    <t>暗影蛋2</t>
-  </si>
-  <si>
-    <t>暗影蛋3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子2</t>
+  </si>
+  <si>
+    <t>种子3</t>
+  </si>
+  <si>
+    <t>种子4</t>
+  </si>
+  <si>
+    <t>种子5</t>
+  </si>
+  <si>
+    <t>种子6</t>
+  </si>
+  <si>
+    <t>种子7</t>
+  </si>
+  <si>
+    <t>种子8</t>
+  </si>
+  <si>
+    <t>种子9</t>
+  </si>
+  <si>
+    <t>种子10</t>
+  </si>
+  <si>
+    <t>种子11</t>
+  </si>
+  <si>
+    <t>种子12</t>
+  </si>
+  <si>
+    <t>种子13</t>
+  </si>
+  <si>
+    <t>种子14</t>
+  </si>
+  <si>
+    <t>种子15</t>
+  </si>
+  <si>
+    <t>种子16</t>
+  </si>
+  <si>
+    <t>种子17</t>
+  </si>
+  <si>
+    <t>种子18</t>
+  </si>
+  <si>
+    <t>种子19</t>
+  </si>
+  <si>
+    <t>种子20</t>
+  </si>
+  <si>
+    <t>Monster10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -987,7 +1053,7 @@
         <v>110</v>
       </c>
       <c r="F17" s="5">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1004,7 +1070,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="5">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1021,7 +1087,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1038,7 +1104,7 @@
         <v>110</v>
       </c>
       <c r="F20" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1055,7 +1121,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="5">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1138,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1106,7 +1172,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1245,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E34" s="6">
         <v>80</v>
@@ -1279,146 +1345,3584 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C35" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E35" s="6">
-        <v>900</v>
+        <f>C35*$E$34</f>
+        <v>160</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C36" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E36" s="6">
-        <v>10000</v>
+        <f t="shared" ref="E36:E53" si="0">C36*$E$34</f>
+        <v>240</v>
       </c>
       <c r="F36" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E37" s="6">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C38" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E38" s="6">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C39" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E39" s="6">
-        <v>150000</v>
+        <f t="shared" si="0"/>
+        <v>480</v>
       </c>
       <c r="F39" s="6">
-        <v>10</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C40" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" s="6">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>560</v>
       </c>
       <c r="F40" s="6">
         <v>1</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>640</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C42" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6">
+        <v>15</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6">
+        <v>17</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="6">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="6">
+        <v>900</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="6">
+        <f>C55*$E$54</f>
+        <v>1800</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" ref="E56:E73" si="1">C56*$E$54</f>
+        <v>2700</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="6">
+        <v>7</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="6">
+        <v>8</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="6">
+        <v>9</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="6">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="6">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="6">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="1"/>
+        <v>11700</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="6">
+        <v>14</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="6">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="6">
+        <v>16</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="6">
+        <v>17</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="1"/>
+        <v>15300</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="6">
+        <v>18</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="1"/>
+        <v>16200</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="6">
+        <v>19</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="1"/>
+        <v>17100</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="6">
+        <v>20</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="6">
+        <f>C75*$E$74</f>
+        <v>20000</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" ref="E76:E93" si="2">C76*$E$74</f>
+        <v>30000</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="6">
+        <v>7</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="6">
+        <v>8</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="6">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="6">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="6">
+        <v>12</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="6">
+        <v>13</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="6">
+        <v>14</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="6">
+        <v>15</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="6">
+        <v>16</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="2"/>
+        <v>160000</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="6">
+        <v>17</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="6">
+        <v>18</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="6">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="2"/>
+        <v>190000</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="6">
+        <v>20</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="6">
+        <f>C95*$E$94</f>
+        <v>200</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="6">
+        <v>3</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" ref="E96:E113" si="3">C96*$E$94</f>
+        <v>300</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="6">
+        <v>4</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="6">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="6">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="6">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="6">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="6">
+        <v>7</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="6">
+        <v>8</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="6">
+        <v>9</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="6">
+        <v>12</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="6">
+        <v>13</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="6">
+        <v>14</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="6">
+        <v>15</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="6">
+        <v>16</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="6">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="6">
+        <v>17</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="6">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="6">
+        <v>18</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="6">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="6">
+        <v>19</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="6">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="6">
+        <v>20</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="6">
+        <f>C115*$E$114</f>
+        <v>2000</v>
+      </c>
+      <c r="F115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="6">
+        <v>3</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" ref="E116:E133" si="4">C116*$E$114</f>
+        <v>3000</v>
+      </c>
+      <c r="F116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="6">
+        <v>4</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="6">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="6">
+        <v>5</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="6">
+        <v>6</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="6">
+        <v>7</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="6">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="F120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="6">
+        <v>8</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="6">
+        <f t="shared" si="4"/>
+        <v>8000</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="6">
+        <v>9</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="6">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="6">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="6">
+        <v>12</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" s="6">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="6">
+        <v>13</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="6">
+        <f t="shared" si="4"/>
+        <v>13000</v>
+      </c>
+      <c r="F126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="6">
+        <v>14</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" s="6">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="6">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="6">
+        <v>16</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="6">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="6">
+        <v>17</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" s="6">
+        <f t="shared" si="4"/>
+        <v>17000</v>
+      </c>
+      <c r="F130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="6">
+        <v>18</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="6">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="6">
+        <v>19</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="4"/>
+        <v>19000</v>
+      </c>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="6">
+        <v>20</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="6">
+        <f>C135*$E$134</f>
+        <v>300000</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="6">
+        <v>3</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" ref="E136:E153" si="5">C136*$E$134</f>
+        <v>450000</v>
+      </c>
+      <c r="F136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="6">
+        <v>4</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="6">
+        <f t="shared" si="5"/>
+        <v>600000</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" s="6">
+        <v>5</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="6">
+        <f t="shared" si="5"/>
+        <v>750000</v>
+      </c>
+      <c r="F138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="6">
+        <v>6</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="6">
+        <f t="shared" si="5"/>
+        <v>900000</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="6">
+        <v>7</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" si="5"/>
+        <v>1050000</v>
+      </c>
+      <c r="F140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="6">
+        <v>8</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="6">
+        <f t="shared" si="5"/>
+        <v>1200000</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="6">
+        <v>9</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" s="6">
+        <f t="shared" si="5"/>
+        <v>1350000</v>
+      </c>
+      <c r="F142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="6">
+        <v>10</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="6">
+        <f t="shared" si="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="6">
+        <f t="shared" si="5"/>
+        <v>1650000</v>
+      </c>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="6">
+        <v>12</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="6">
+        <f t="shared" si="5"/>
+        <v>1800000</v>
+      </c>
+      <c r="F145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="6">
+        <v>13</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="6">
+        <f t="shared" si="5"/>
+        <v>1950000</v>
+      </c>
+      <c r="F146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="6">
+        <v>14</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="6">
+        <f t="shared" si="5"/>
+        <v>2100000</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="6">
+        <v>15</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E148" s="6">
+        <f t="shared" si="5"/>
+        <v>2250000</v>
+      </c>
+      <c r="F148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="6">
+        <v>16</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="6">
+        <f t="shared" si="5"/>
+        <v>2400000</v>
+      </c>
+      <c r="F149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="6">
+        <v>17</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="6">
+        <f t="shared" si="5"/>
+        <v>2550000</v>
+      </c>
+      <c r="F150" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="6">
+        <v>18</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="6">
+        <f t="shared" si="5"/>
+        <v>2700000</v>
+      </c>
+      <c r="F151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="6">
+        <v>19</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="6">
+        <f t="shared" si="5"/>
+        <v>2850000</v>
+      </c>
+      <c r="F152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="6">
+        <v>20</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="6">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="F153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E154" s="6">
+        <v>60</v>
+      </c>
+      <c r="F154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="6">
+        <v>2</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E155" s="6">
+        <f>C155*$E$154</f>
+        <v>120</v>
+      </c>
+      <c r="F155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="6">
+        <v>3</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E156" s="6">
+        <f t="shared" ref="E156:E173" si="6">C156*$E$154</f>
+        <v>180</v>
+      </c>
+      <c r="F156" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="6">
+        <v>4</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157" s="6">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="F157" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="6">
+        <v>5</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="6">
+        <v>6</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E159" s="6">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="6">
+        <v>7</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160" s="6">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="6">
+        <v>8</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E161" s="6">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="F161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="6">
+        <v>9</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162" s="6">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="F162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="6">
+        <v>10</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" s="6">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F163" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E164" s="6">
+        <f t="shared" si="6"/>
+        <v>660</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="6">
+        <v>12</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E165" s="6">
+        <f t="shared" si="6"/>
+        <v>720</v>
+      </c>
+      <c r="F165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="6">
+        <v>13</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="6">
+        <f t="shared" si="6"/>
+        <v>780</v>
+      </c>
+      <c r="F166" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="6">
+        <v>14</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" s="6">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="F167" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="6">
+        <v>15</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E168" s="6">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="F168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="6">
+        <v>16</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" s="6">
+        <f t="shared" si="6"/>
+        <v>960</v>
+      </c>
+      <c r="F169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="6">
+        <v>17</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E170" s="6">
+        <f t="shared" si="6"/>
+        <v>1020</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="6">
+        <v>18</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" s="6">
+        <f t="shared" si="6"/>
+        <v>1080</v>
+      </c>
+      <c r="F171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="6">
+        <v>19</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E172" s="6">
+        <f t="shared" si="6"/>
+        <v>1140</v>
+      </c>
+      <c r="F172" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="6">
+        <v>20</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="6">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="6">
+        <v>1</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F174" s="6">
+        <v>1</v>
+      </c>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="6">
+        <v>2</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="6">
+        <f>C175*$E$174</f>
+        <v>2000</v>
+      </c>
+      <c r="F175" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="6">
+        <v>3</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="6">
+        <f t="shared" ref="E176:E193" si="7">C176*$E$174</f>
+        <v>3000</v>
+      </c>
+      <c r="F176" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="6">
+        <v>4</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="6">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="F177" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="6">
+        <v>5</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="6">
+        <f t="shared" si="7"/>
+        <v>5000</v>
+      </c>
+      <c r="F178" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="6">
+        <v>6</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E179" s="6">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="F179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="6">
+        <v>7</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E180" s="6">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+      <c r="F180" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="6">
+        <v>8</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="6">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="F181" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="6">
+        <v>9</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182" s="6">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="F182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="6">
+        <v>10</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183" s="6">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="F183" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="6">
+        <v>11</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="6">
+        <f t="shared" si="7"/>
+        <v>11000</v>
+      </c>
+      <c r="F184" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="6">
+        <v>12</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" s="6">
+        <f t="shared" si="7"/>
+        <v>12000</v>
+      </c>
+      <c r="F185" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="6">
+        <v>13</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" s="6">
+        <f t="shared" si="7"/>
+        <v>13000</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="6">
+        <v>14</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E187" s="6">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="F187" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="6">
+        <v>15</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188" s="6">
+        <f t="shared" si="7"/>
+        <v>15000</v>
+      </c>
+      <c r="F188" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="6">
+        <v>16</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E189" s="6">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="F189" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B190" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="6">
+        <v>17</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E190" s="6">
+        <f t="shared" si="7"/>
+        <v>17000</v>
+      </c>
+      <c r="F190" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="6">
+        <v>18</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E191" s="6">
+        <f t="shared" si="7"/>
+        <v>18000</v>
+      </c>
+      <c r="F191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="6">
+        <v>19</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="6">
+        <f t="shared" si="7"/>
+        <v>19000</v>
+      </c>
+      <c r="F192" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="6">
+        <v>20</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193" s="6">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+      <c r="F193" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="6">
+        <v>1</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E194" s="6">
         <v>500000</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" s="6">
+        <v>2</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E195" s="6">
+        <f>C195*$E$194</f>
+        <v>1000000</v>
+      </c>
+      <c r="F195" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" s="6">
+        <v>3</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E196" s="6">
+        <f t="shared" ref="E196:E213" si="8">C196*$E$194</f>
+        <v>1500000</v>
+      </c>
+      <c r="F196" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" s="6">
+        <v>4</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E197" s="6">
+        <f t="shared" si="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="F197" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="6">
+        <v>5</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E198" s="6">
+        <f t="shared" si="8"/>
+        <v>2500000</v>
+      </c>
+      <c r="F198" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="6">
+        <v>6</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E199" s="6">
+        <f t="shared" si="8"/>
+        <v>3000000</v>
+      </c>
+      <c r="F199" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="6">
+        <v>7</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E200" s="6">
+        <f t="shared" si="8"/>
+        <v>3500000</v>
+      </c>
+      <c r="F200" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="6">
+        <v>8</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" s="6">
+        <f t="shared" si="8"/>
+        <v>4000000</v>
+      </c>
+      <c r="F201" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" s="6">
+        <v>9</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E202" s="6">
+        <f t="shared" si="8"/>
+        <v>4500000</v>
+      </c>
+      <c r="F202" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" s="6">
         <v>10</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="D203" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E203" s="6">
+        <f t="shared" si="8"/>
+        <v>5000000</v>
+      </c>
+      <c r="F203" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" s="6">
+        <v>11</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="6">
+        <f t="shared" si="8"/>
+        <v>5500000</v>
+      </c>
+      <c r="F204" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="6">
+        <v>12</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E205" s="6">
+        <f t="shared" si="8"/>
+        <v>6000000</v>
+      </c>
+      <c r="F205" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" s="6">
+        <v>13</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E206" s="6">
+        <f t="shared" si="8"/>
+        <v>6500000</v>
+      </c>
+      <c r="F206" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="6">
+        <v>14</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E207" s="6">
+        <f t="shared" si="8"/>
+        <v>7000000</v>
+      </c>
+      <c r="F207" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="6">
+        <v>15</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E208" s="6">
+        <f t="shared" si="8"/>
+        <v>7500000</v>
+      </c>
+      <c r="F208" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" s="6">
+        <v>16</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E209" s="6">
+        <f t="shared" si="8"/>
+        <v>8000000</v>
+      </c>
+      <c r="F209" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="6">
+        <v>17</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E210" s="6">
+        <f t="shared" si="8"/>
+        <v>8500000</v>
+      </c>
+      <c r="F210" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" s="6">
+        <v>18</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E211" s="6">
+        <f t="shared" si="8"/>
+        <v>9000000</v>
+      </c>
+      <c r="F211" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B212" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" s="6">
+        <v>19</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" s="6">
+        <f t="shared" si="8"/>
+        <v>9500000</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B213" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="6">
+        <v>20</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E213" s="6">
+        <f t="shared" si="8"/>
+        <v>10000000</v>
+      </c>
+      <c r="F213" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B214" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C214" s="6">
+        <v>1</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E214" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F214" s="6">
+        <v>1</v>
+      </c>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="6">
+        <v>2</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E215" s="6">
+        <f>C215*$E$174</f>
+        <v>2000</v>
+      </c>
+      <c r="F215" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C216" s="6">
+        <v>3</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" s="6">
+        <f t="shared" ref="E216:E233" si="9">C216*$E$174</f>
+        <v>3000</v>
+      </c>
+      <c r="F216" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C217" s="6">
+        <v>4</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E217" s="6">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="F217" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C218" s="6">
+        <v>5</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218" s="6">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+      <c r="F218" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="6">
+        <v>6</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E219" s="6">
+        <f t="shared" si="9"/>
+        <v>6000</v>
+      </c>
+      <c r="F219" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C220" s="6">
+        <v>7</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E220" s="6">
+        <f t="shared" si="9"/>
+        <v>7000</v>
+      </c>
+      <c r="F220" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C221" s="6">
+        <v>8</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E221" s="6">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="F221" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C222" s="6">
+        <v>9</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E222" s="6">
+        <f t="shared" si="9"/>
+        <v>9000</v>
+      </c>
+      <c r="F222" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223" s="6">
+        <v>10</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E223" s="6">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="F223" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C224" s="6">
+        <v>11</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E224" s="6">
+        <f t="shared" si="9"/>
+        <v>11000</v>
+      </c>
+      <c r="F224" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C225" s="6">
+        <v>12</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E225" s="6">
+        <f t="shared" si="9"/>
+        <v>12000</v>
+      </c>
+      <c r="F225" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C226" s="6">
+        <v>13</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E226" s="6">
+        <f t="shared" si="9"/>
+        <v>13000</v>
+      </c>
+      <c r="F226" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" s="6">
+        <v>14</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="6">
+        <f t="shared" si="9"/>
+        <v>14000</v>
+      </c>
+      <c r="F227" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C228" s="6">
+        <v>15</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E228" s="6">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="F228" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C229" s="6">
+        <v>16</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E229" s="6">
+        <f t="shared" si="9"/>
+        <v>16000</v>
+      </c>
+      <c r="F229" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B230" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C230" s="6">
+        <v>17</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E230" s="6">
+        <f t="shared" si="9"/>
+        <v>17000</v>
+      </c>
+      <c r="F230" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C231" s="6">
+        <v>18</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E231" s="6">
+        <f t="shared" si="9"/>
+        <v>18000</v>
+      </c>
+      <c r="F231" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C232" s="6">
+        <v>19</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="6">
+        <f t="shared" si="9"/>
+        <v>19000</v>
+      </c>
+      <c r="F232" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B233" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233" s="6">
+        <v>20</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E233" s="6">
+        <f t="shared" si="9"/>
+        <v>20000</v>
+      </c>
+      <c r="F233" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitPropertyCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9422ABE9-4644-406E-8BC3-4F97B423C03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF7568-12A0-4AEB-B2E7-96F63DDBA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="685">
   <si>
     <t>##var</t>
   </si>
@@ -1860,13 +1860,265 @@
   </si>
   <si>
     <t>Tow11</t>
+  </si>
+  <si>
+    <t>Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物1_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物2_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物2_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物3_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物3_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物4_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物4_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物5_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物5_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物6_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物6_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物7_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物7_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物8_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物8_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物9_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物9_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物10_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物10_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物11_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物11_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物12_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物13_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物13_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物14_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物14_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物16_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物16_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物17_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物17_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1936,8 +2188,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1956,8 +2217,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2017,8 +2283,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2026,8 +2307,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2044,6 +2328,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,10 +2358,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="输出" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2347,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB574"/>
+  <dimension ref="A1:AB617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89:E214"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2401,27 +2689,27 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2436,36 +2724,36 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="S2" s="12"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="14" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="X2" s="12"/>
+      <c r="X2" s="13"/>
       <c r="Y2" s="8" t="s">
         <v>236</v>
       </c>
@@ -2501,27 +2789,27 @@
       <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="15" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="15" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2629,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -2654,7 +2942,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="P6" t="s">
         <v>255</v>
@@ -2693,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>337</v>
+        <v>675</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -2718,7 +3006,7 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
-        <v>337</v>
+        <v>675</v>
       </c>
       <c r="P7" t="s">
         <v>255</v>
@@ -2753,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1038</v>
+        <v>2076</v>
       </c>
       <c r="G8">
         <v>200</v>
@@ -2778,7 +3066,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
-        <v>1038</v>
+        <v>2076</v>
       </c>
       <c r="P8" t="s">
         <v>255</v>
@@ -2813,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -2838,7 +3126,7 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
         <v>255</v>
@@ -2873,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -2898,7 +3186,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="P10" t="s">
         <v>255</v>
@@ -2933,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -2958,7 +3246,7 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="P11" t="s">
         <v>255</v>
@@ -3653,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -3678,7 +3966,7 @@
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9">
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="P23" t="s">
         <v>255</v>
@@ -4625,7 +4913,7 @@
         <v>584</v>
       </c>
       <c r="E40">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4657,7 +4945,7 @@
         <v>585</v>
       </c>
       <c r="E41">
-        <v>514</v>
+        <v>321</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4689,7 +4977,7 @@
         <v>586</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4721,7 +5009,7 @@
         <v>587</v>
       </c>
       <c r="E43">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4753,7 +5041,7 @@
         <v>588</v>
       </c>
       <c r="E44">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4785,7 +5073,7 @@
         <v>323</v>
       </c>
       <c r="E46">
-        <v>115</v>
+        <v>346</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4811,7 +5099,7 @@
         <v>323</v>
       </c>
       <c r="E47">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4837,7 +5125,7 @@
         <v>323</v>
       </c>
       <c r="E48">
-        <v>698</v>
+        <v>1289</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4863,7 +5151,7 @@
         <v>323</v>
       </c>
       <c r="E49">
-        <v>1565</v>
+        <v>1628</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4889,7 +5177,7 @@
         <v>323</v>
       </c>
       <c r="E50">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4915,7 +5203,7 @@
         <v>323</v>
       </c>
       <c r="E51">
-        <v>31862</v>
+        <v>100303</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4941,7 +5229,7 @@
         <v>323</v>
       </c>
       <c r="E52">
-        <v>398</v>
+        <v>1254</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4967,7 +5255,7 @@
         <v>323</v>
       </c>
       <c r="E53">
-        <v>3907</v>
+        <v>3767</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4993,7 +5281,7 @@
         <v>323</v>
       </c>
       <c r="E54">
-        <v>1953</v>
+        <v>1884</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -5019,7 +5307,7 @@
         <v>323</v>
       </c>
       <c r="E55">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -5045,7 +5333,7 @@
         <v>323</v>
       </c>
       <c r="E56">
-        <v>2550</v>
+        <v>2100</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5071,7 +5359,7 @@
         <v>323</v>
       </c>
       <c r="E57">
-        <v>1598</v>
+        <v>1328</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5097,7 +5385,7 @@
         <v>323</v>
       </c>
       <c r="E58">
-        <v>3197</v>
+        <v>2656</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -5123,7 +5411,7 @@
         <v>323</v>
       </c>
       <c r="E59">
-        <v>1178</v>
+        <v>2483</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -5149,7 +5437,7 @@
         <v>323</v>
       </c>
       <c r="E60">
-        <v>47122</v>
+        <v>49655</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5175,7 +5463,7 @@
         <v>323</v>
       </c>
       <c r="E61">
-        <v>19500</v>
+        <v>15429</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5201,7 +5489,7 @@
         <v>323</v>
       </c>
       <c r="E62">
-        <v>19500</v>
+        <v>23143</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5227,7 +5515,7 @@
         <v>323</v>
       </c>
       <c r="E63">
-        <v>4092</v>
+        <v>3938</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -5253,7 +5541,7 @@
         <v>323</v>
       </c>
       <c r="E64">
-        <v>4092</v>
+        <v>5906</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -5279,7 +5567,7 @@
         <v>323</v>
       </c>
       <c r="E65">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5305,7 +5593,7 @@
         <v>323</v>
       </c>
       <c r="E66">
-        <v>9600</v>
+        <v>12600</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5331,7 +5619,7 @@
         <v>323</v>
       </c>
       <c r="E67">
-        <v>4773</v>
+        <v>6376</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5357,7 +5645,7 @@
         <v>323</v>
       </c>
       <c r="E68">
-        <v>4773</v>
+        <v>9565</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5383,7 +5671,7 @@
         <v>323</v>
       </c>
       <c r="E69">
-        <v>95455</v>
+        <v>127528</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5409,7 +5697,7 @@
         <v>323</v>
       </c>
       <c r="E70">
-        <v>47500</v>
+        <v>51000</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5435,7 +5723,7 @@
         <v>323</v>
       </c>
       <c r="E71">
-        <v>26650</v>
+        <v>21600</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5461,7 +5749,7 @@
         <v>323</v>
       </c>
       <c r="E72">
-        <v>26650</v>
+        <v>43200</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -5487,7 +5775,7 @@
         <v>323</v>
       </c>
       <c r="E73">
-        <v>20625</v>
+        <v>15750</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5513,7 +5801,7 @@
         <v>323</v>
       </c>
       <c r="E74">
-        <v>41250</v>
+        <v>94500</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -5539,7 +5827,7 @@
         <v>323</v>
       </c>
       <c r="E75">
-        <v>8094</v>
+        <v>11731</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -5565,7 +5853,7 @@
         <v>323</v>
       </c>
       <c r="E76">
-        <v>80944</v>
+        <v>234621</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -5591,7 +5879,7 @@
         <v>323</v>
       </c>
       <c r="E77">
-        <v>27273</v>
+        <v>26151</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -5617,7 +5905,7 @@
         <v>323</v>
       </c>
       <c r="E78">
-        <v>27273</v>
+        <v>52302</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -5643,7 +5931,7 @@
         <v>323</v>
       </c>
       <c r="E79">
-        <v>39750</v>
+        <v>48000</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -5669,7 +5957,7 @@
         <v>323</v>
       </c>
       <c r="E80">
-        <v>19875</v>
+        <v>24000</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -5695,7 +5983,7 @@
         <v>323</v>
       </c>
       <c r="E81">
-        <v>30175</v>
+        <v>34615</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -5721,7 +6009,7 @@
         <v>323</v>
       </c>
       <c r="E82">
-        <v>15087</v>
+        <v>17308</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5747,7 +6035,7 @@
         <v>323</v>
       </c>
       <c r="E83">
-        <v>30175</v>
+        <v>51923</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -5773,7 +6061,7 @@
         <v>323</v>
       </c>
       <c r="E84">
-        <v>19217</v>
+        <v>33065</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -5799,7 +6087,7 @@
         <v>323</v>
       </c>
       <c r="E85">
-        <v>9609</v>
+        <v>16533</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -5825,7 +6113,7 @@
         <v>323</v>
       </c>
       <c r="E86">
-        <v>19217</v>
+        <v>49598</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -5851,7 +6139,7 @@
         <v>323</v>
       </c>
       <c r="E87">
-        <v>384343</v>
+        <v>330652</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -5877,7 +6165,7 @@
         <v>325</v>
       </c>
       <c r="E89" s="9">
-        <v>146</v>
+        <v>486</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -5912,7 +6200,7 @@
         <v>327</v>
       </c>
       <c r="E90">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -5947,7 +6235,7 @@
         <v>329</v>
       </c>
       <c r="E91">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -5982,7 +6270,7 @@
         <v>331</v>
       </c>
       <c r="E92">
-        <v>802</v>
+        <v>1296</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6017,7 +6305,7 @@
         <v>333</v>
       </c>
       <c r="E93">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6052,7 +6340,7 @@
         <v>335</v>
       </c>
       <c r="E94">
-        <v>883</v>
+        <v>662</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -6087,7 +6375,7 @@
         <v>337</v>
       </c>
       <c r="E95">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6122,7 +6410,7 @@
         <v>339</v>
       </c>
       <c r="E96">
-        <v>963</v>
+        <v>722</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6157,7 +6445,7 @@
         <v>341</v>
       </c>
       <c r="E97">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6192,7 +6480,7 @@
         <v>343</v>
       </c>
       <c r="E98">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -6227,7 +6515,7 @@
         <v>345</v>
       </c>
       <c r="E99">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -6262,7 +6550,7 @@
         <v>347</v>
       </c>
       <c r="E100">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -6297,7 +6585,7 @@
         <v>349</v>
       </c>
       <c r="E101">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -6332,7 +6620,7 @@
         <v>351</v>
       </c>
       <c r="E102">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -6367,7 +6655,7 @@
         <v>353</v>
       </c>
       <c r="E103">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -6402,7 +6690,7 @@
         <v>355</v>
       </c>
       <c r="E104">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -6437,7 +6725,7 @@
         <v>357</v>
       </c>
       <c r="E105">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -6472,7 +6760,7 @@
         <v>359</v>
       </c>
       <c r="E106">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -6507,7 +6795,7 @@
         <v>361</v>
       </c>
       <c r="E107">
-        <v>713</v>
+        <v>535</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6542,7 +6830,7 @@
         <v>425</v>
       </c>
       <c r="E108">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -6577,7 +6865,7 @@
         <v>363</v>
       </c>
       <c r="E109">
-        <v>638</v>
+        <v>216</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -6612,7 +6900,7 @@
         <v>365</v>
       </c>
       <c r="E110">
-        <v>425</v>
+        <v>144</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -6647,7 +6935,7 @@
         <v>367</v>
       </c>
       <c r="E111">
-        <v>860</v>
+        <v>1029</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -6682,7 +6970,7 @@
         <v>369</v>
       </c>
       <c r="E112">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -6717,7 +7005,7 @@
         <v>371</v>
       </c>
       <c r="E113">
-        <v>1067</v>
+        <v>410</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6752,7 +7040,7 @@
         <v>373</v>
       </c>
       <c r="E114">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -6787,7 +7075,7 @@
         <v>375</v>
       </c>
       <c r="E115">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -6822,7 +7110,7 @@
         <v>377</v>
       </c>
       <c r="E116">
-        <v>1154</v>
+        <v>416</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -6857,7 +7145,7 @@
         <v>379</v>
       </c>
       <c r="E117">
-        <v>769</v>
+        <v>277</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6892,7 +7180,7 @@
         <v>381</v>
       </c>
       <c r="E118">
-        <v>385</v>
+        <v>139</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -6927,7 +7215,7 @@
         <v>383</v>
       </c>
       <c r="E119">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -6962,7 +7250,7 @@
         <v>385</v>
       </c>
       <c r="E120">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -6997,7 +7285,7 @@
         <v>387</v>
       </c>
       <c r="E121">
-        <v>484</v>
+        <v>931</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -7032,7 +7320,7 @@
         <v>389</v>
       </c>
       <c r="E122">
-        <v>591</v>
+        <v>1364</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7067,7 +7355,7 @@
         <v>391</v>
       </c>
       <c r="E123">
-        <v>296</v>
+        <v>682</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -7102,7 +7390,7 @@
         <v>393</v>
       </c>
       <c r="E124">
-        <v>522</v>
+        <v>241</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7137,7 +7425,7 @@
         <v>395</v>
       </c>
       <c r="E125">
-        <v>522</v>
+        <v>241</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -7172,7 +7460,7 @@
         <v>397</v>
       </c>
       <c r="E126">
-        <v>602</v>
+        <v>231</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -7207,7 +7495,7 @@
         <v>399</v>
       </c>
       <c r="E127">
-        <v>1805</v>
+        <v>694</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -7242,7 +7530,7 @@
         <v>401</v>
       </c>
       <c r="E128">
-        <v>836</v>
+        <v>157</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -7277,7 +7565,7 @@
         <v>403</v>
       </c>
       <c r="E129">
-        <v>1106</v>
+        <v>276</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -7312,7 +7600,7 @@
         <v>405</v>
       </c>
       <c r="E130">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -7347,7 +7635,7 @@
         <v>407</v>
       </c>
       <c r="E131">
-        <v>2127</v>
+        <v>491</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -7382,7 +7670,7 @@
         <v>409</v>
       </c>
       <c r="E132">
-        <v>532</v>
+        <v>123</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7417,7 +7705,7 @@
         <v>411</v>
       </c>
       <c r="E133">
-        <v>532</v>
+        <v>123</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -7452,7 +7740,7 @@
         <v>413</v>
       </c>
       <c r="E134">
-        <v>2819</v>
+        <v>651</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -7487,7 +7775,7 @@
         <v>415</v>
       </c>
       <c r="E135">
-        <v>705</v>
+        <v>163</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -7522,7 +7810,7 @@
         <v>417</v>
       </c>
       <c r="E136">
-        <v>3467</v>
+        <v>400</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7557,7 +7845,7 @@
         <v>419</v>
       </c>
       <c r="E137">
-        <v>867</v>
+        <v>100</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -7592,7 +7880,7 @@
         <v>421</v>
       </c>
       <c r="E138">
-        <v>2600</v>
+        <v>300</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -7627,7 +7915,7 @@
         <v>423</v>
       </c>
       <c r="E139">
-        <v>34667</v>
+        <v>4000</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -7662,7 +7950,7 @@
         <v>427</v>
       </c>
       <c r="E140">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -7697,7 +7985,7 @@
         <v>429</v>
       </c>
       <c r="E141">
-        <v>1286</v>
+        <v>313</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -7732,7 +8020,7 @@
         <v>431</v>
       </c>
       <c r="E142">
-        <v>486</v>
+        <v>119</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -7767,7 +8055,7 @@
         <v>433</v>
       </c>
       <c r="E143">
-        <v>1946</v>
+        <v>474</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -7802,7 +8090,7 @@
         <v>435</v>
       </c>
       <c r="E144">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -7837,7 +8125,7 @@
         <v>437</v>
       </c>
       <c r="E145">
-        <v>2009</v>
+        <v>502</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -7872,7 +8160,7 @@
         <v>439</v>
       </c>
       <c r="E146">
-        <v>2009</v>
+        <v>502</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -7907,7 +8195,7 @@
         <v>441</v>
       </c>
       <c r="E147">
-        <v>738</v>
+        <v>111</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -7942,7 +8230,7 @@
         <v>443</v>
       </c>
       <c r="E148">
-        <v>2951</v>
+        <v>443</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7977,7 +8265,7 @@
         <v>445</v>
       </c>
       <c r="E149">
-        <v>2951</v>
+        <v>443</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -8012,7 +8300,7 @@
         <v>447</v>
       </c>
       <c r="E150">
-        <v>502</v>
+        <v>75</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -8047,7 +8335,7 @@
         <v>449</v>
       </c>
       <c r="E151">
-        <v>2009</v>
+        <v>301</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -8082,7 +8370,7 @@
         <v>451</v>
       </c>
       <c r="E152">
-        <v>2009</v>
+        <v>301</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -8117,7 +8405,7 @@
         <v>453</v>
       </c>
       <c r="E153">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -8152,7 +8440,7 @@
         <v>455</v>
       </c>
       <c r="E154">
-        <v>825</v>
+        <v>201</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -8187,7 +8475,7 @@
         <v>457</v>
       </c>
       <c r="E155">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -8222,7 +8510,7 @@
         <v>459</v>
       </c>
       <c r="E156">
-        <v>574</v>
+        <v>140</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -8257,7 +8545,7 @@
         <v>461</v>
       </c>
       <c r="E157">
-        <v>574</v>
+        <v>140</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -8292,7 +8580,7 @@
         <v>463</v>
       </c>
       <c r="E158">
-        <v>785</v>
+        <v>196</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -8327,7 +8615,7 @@
         <v>465</v>
       </c>
       <c r="E159">
-        <v>393</v>
+        <v>98</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -8362,7 +8650,7 @@
         <v>467</v>
       </c>
       <c r="E160">
-        <v>1571</v>
+        <v>393</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -8397,7 +8685,7 @@
         <v>469</v>
       </c>
       <c r="E161">
-        <v>839</v>
+        <v>126</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -8432,7 +8720,7 @@
         <v>471</v>
       </c>
       <c r="E162">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -8467,7 +8755,7 @@
         <v>473</v>
       </c>
       <c r="E163">
-        <v>1678</v>
+        <v>252</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -8502,7 +8790,7 @@
         <v>475</v>
       </c>
       <c r="E164">
-        <v>1678</v>
+        <v>252</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -8537,7 +8825,7 @@
         <v>477</v>
       </c>
       <c r="E165">
-        <v>547</v>
+        <v>82</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -8572,7 +8860,7 @@
         <v>479</v>
       </c>
       <c r="E166">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -8607,7 +8895,7 @@
         <v>481</v>
       </c>
       <c r="E167">
-        <v>1095</v>
+        <v>164</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -8642,7 +8930,7 @@
         <v>483</v>
       </c>
       <c r="E168">
-        <v>1095</v>
+        <v>164</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -8677,7 +8965,7 @@
         <v>485</v>
       </c>
       <c r="E169">
-        <v>860</v>
+        <v>210</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8712,7 +9000,7 @@
         <v>487</v>
       </c>
       <c r="E170">
-        <v>1146</v>
+        <v>279</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -8747,7 +9035,7 @@
         <v>489</v>
       </c>
       <c r="E171">
-        <v>1167</v>
+        <v>284</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -8782,7 +9070,7 @@
         <v>491</v>
       </c>
       <c r="E172">
-        <v>778</v>
+        <v>190</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -8817,7 +9105,7 @@
         <v>493</v>
       </c>
       <c r="E173">
-        <v>1556</v>
+        <v>379</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -8852,7 +9140,7 @@
         <v>495</v>
       </c>
       <c r="E174">
-        <v>2413</v>
+        <v>603</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -8887,7 +9175,7 @@
         <v>497</v>
       </c>
       <c r="E175">
-        <v>402</v>
+        <v>101</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -8922,7 +9210,7 @@
         <v>499</v>
       </c>
       <c r="E176">
-        <v>3217</v>
+        <v>804</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -8957,7 +9245,7 @@
         <v>501</v>
       </c>
       <c r="E177">
-        <v>3630</v>
+        <v>545</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -8992,7 +9280,7 @@
         <v>503</v>
       </c>
       <c r="E178">
-        <v>605</v>
+        <v>91</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -9027,7 +9315,7 @@
         <v>505</v>
       </c>
       <c r="E179">
-        <v>1210</v>
+        <v>182</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -9062,7 +9350,7 @@
         <v>507</v>
       </c>
       <c r="E180">
-        <v>4840</v>
+        <v>726</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -9097,7 +9385,7 @@
         <v>509</v>
       </c>
       <c r="E181">
-        <v>1894</v>
+        <v>284</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -9132,7 +9420,7 @@
         <v>511</v>
       </c>
       <c r="E182">
-        <v>1263</v>
+        <v>189</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -9167,7 +9455,7 @@
         <v>513</v>
       </c>
       <c r="E183">
-        <v>631</v>
+        <v>95</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -9202,7 +9490,7 @@
         <v>515</v>
       </c>
       <c r="E184">
-        <v>2525</v>
+        <v>379</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -9237,7 +9525,7 @@
         <v>517</v>
       </c>
       <c r="E185">
-        <v>545</v>
+        <v>133</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -9272,7 +9560,7 @@
         <v>519</v>
       </c>
       <c r="E186">
-        <v>2178</v>
+        <v>531</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -9307,7 +9595,7 @@
         <v>521</v>
       </c>
       <c r="E187">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -9342,7 +9630,7 @@
         <v>523</v>
       </c>
       <c r="E188">
-        <v>685</v>
+        <v>167</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -9377,7 +9665,7 @@
         <v>525</v>
       </c>
       <c r="E189">
-        <v>1369</v>
+        <v>334</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -9412,7 +9700,7 @@
         <v>527</v>
       </c>
       <c r="E190">
-        <v>905</v>
+        <v>226</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -9447,7 +9735,7 @@
         <v>529</v>
       </c>
       <c r="E191">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -9482,7 +9770,7 @@
         <v>531</v>
       </c>
       <c r="E192">
-        <v>3622</v>
+        <v>905</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -9517,7 +9805,7 @@
         <v>533</v>
       </c>
       <c r="E193">
-        <v>1664</v>
+        <v>250</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -9552,7 +9840,7 @@
         <v>535</v>
       </c>
       <c r="E194">
-        <v>1664</v>
+        <v>250</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -9587,7 +9875,7 @@
         <v>537</v>
       </c>
       <c r="E195">
-        <v>6655</v>
+        <v>998</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -9622,7 +9910,7 @@
         <v>539</v>
       </c>
       <c r="E196">
-        <v>1307</v>
+        <v>196</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -9657,7 +9945,7 @@
         <v>541</v>
       </c>
       <c r="E197">
-        <v>3920</v>
+        <v>588</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -9692,7 +9980,7 @@
         <v>543</v>
       </c>
       <c r="E198">
-        <v>5227</v>
+        <v>784</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -9727,7 +10015,7 @@
         <v>545</v>
       </c>
       <c r="E199">
-        <v>732</v>
+        <v>178</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -9762,7 +10050,7 @@
         <v>547</v>
       </c>
       <c r="E200">
-        <v>1464</v>
+        <v>357</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -9797,7 +10085,7 @@
         <v>549</v>
       </c>
       <c r="E201">
-        <v>1205</v>
+        <v>294</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -9832,7 +10120,7 @@
         <v>551</v>
       </c>
       <c r="E202">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -9867,7 +10155,7 @@
         <v>553</v>
       </c>
       <c r="E203">
-        <v>2409</v>
+        <v>587</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -9902,7 +10190,7 @@
         <v>555</v>
       </c>
       <c r="E204">
-        <v>2108</v>
+        <v>527</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -9937,7 +10225,7 @@
         <v>557</v>
       </c>
       <c r="E205">
-        <v>527</v>
+        <v>132</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -9972,7 +10260,7 @@
         <v>559</v>
       </c>
       <c r="E206">
-        <v>527</v>
+        <v>132</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -10007,7 +10295,7 @@
         <v>561</v>
       </c>
       <c r="E207">
-        <v>4217</v>
+        <v>1054</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -10042,7 +10330,7 @@
         <v>563</v>
       </c>
       <c r="E208">
-        <v>4583</v>
+        <v>687</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -10077,7 +10365,7 @@
         <v>565</v>
       </c>
       <c r="E209">
-        <v>1146</v>
+        <v>172</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -10112,7 +10400,7 @@
         <v>567</v>
       </c>
       <c r="E210">
-        <v>9167</v>
+        <v>1375</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -10147,7 +10435,7 @@
         <v>569</v>
       </c>
       <c r="E211">
-        <v>3131</v>
+        <v>470</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10182,7 +10470,7 @@
         <v>571</v>
       </c>
       <c r="E212">
-        <v>783</v>
+        <v>117</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10217,7 +10505,7 @@
         <v>573</v>
       </c>
       <c r="E213">
-        <v>2348</v>
+        <v>352</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10252,7 +10540,7 @@
         <v>575</v>
       </c>
       <c r="E214">
-        <v>6262</v>
+        <v>939</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -21863,6 +22151,1224 @@
         <v>0</v>
       </c>
       <c r="J574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B576" t="s">
+        <v>601</v>
+      </c>
+      <c r="C576" s="11">
+        <v>1</v>
+      </c>
+      <c r="D576" t="s">
+        <v>602</v>
+      </c>
+      <c r="E576" s="12">
+        <v>346</v>
+      </c>
+      <c r="F576" s="11">
+        <v>1</v>
+      </c>
+      <c r="G576" s="11">
+        <v>0</v>
+      </c>
+      <c r="H576" s="11">
+        <v>0</v>
+      </c>
+      <c r="I576" s="11">
+        <v>0</v>
+      </c>
+      <c r="J576" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B577" t="s">
+        <v>603</v>
+      </c>
+      <c r="C577" s="11">
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
+        <v>604</v>
+      </c>
+      <c r="E577" s="12">
+        <v>322</v>
+      </c>
+      <c r="F577" s="11">
+        <v>1</v>
+      </c>
+      <c r="G577" s="11">
+        <v>0</v>
+      </c>
+      <c r="H577" s="11">
+        <v>0</v>
+      </c>
+      <c r="I577" s="11">
+        <v>0</v>
+      </c>
+      <c r="J577" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B578" t="s">
+        <v>605</v>
+      </c>
+      <c r="C578" s="11">
+        <v>1</v>
+      </c>
+      <c r="D578" t="s">
+        <v>606</v>
+      </c>
+      <c r="E578" s="12">
+        <v>1289</v>
+      </c>
+      <c r="F578" s="11">
+        <v>1</v>
+      </c>
+      <c r="G578" s="11">
+        <v>0</v>
+      </c>
+      <c r="H578" s="11">
+        <v>0</v>
+      </c>
+      <c r="I578" s="11">
+        <v>0</v>
+      </c>
+      <c r="J578" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B579" t="s">
+        <v>607</v>
+      </c>
+      <c r="C579" s="11">
+        <v>1</v>
+      </c>
+      <c r="D579" t="s">
+        <v>608</v>
+      </c>
+      <c r="E579" s="12">
+        <v>1628</v>
+      </c>
+      <c r="F579" s="11">
+        <v>1</v>
+      </c>
+      <c r="G579" s="11">
+        <v>0</v>
+      </c>
+      <c r="H579" s="11">
+        <v>0</v>
+      </c>
+      <c r="I579" s="11">
+        <v>0</v>
+      </c>
+      <c r="J579" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B580" t="s">
+        <v>609</v>
+      </c>
+      <c r="C580" s="11">
+        <v>1</v>
+      </c>
+      <c r="D580" t="s">
+        <v>610</v>
+      </c>
+      <c r="E580" s="12">
+        <v>407</v>
+      </c>
+      <c r="F580" s="11">
+        <v>1</v>
+      </c>
+      <c r="G580" s="11">
+        <v>0</v>
+      </c>
+      <c r="H580" s="11">
+        <v>0</v>
+      </c>
+      <c r="I580" s="11">
+        <v>0</v>
+      </c>
+      <c r="J580" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B581" t="s">
+        <v>611</v>
+      </c>
+      <c r="C581" s="11">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>612</v>
+      </c>
+      <c r="E581" s="12">
+        <v>1371</v>
+      </c>
+      <c r="F581" s="11">
+        <v>1</v>
+      </c>
+      <c r="G581" s="11">
+        <v>0</v>
+      </c>
+      <c r="H581" s="11">
+        <v>0</v>
+      </c>
+      <c r="I581" s="11">
+        <v>0</v>
+      </c>
+      <c r="J581" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B582" t="s">
+        <v>613</v>
+      </c>
+      <c r="C582" s="11">
+        <v>1</v>
+      </c>
+      <c r="D582" t="s">
+        <v>614</v>
+      </c>
+      <c r="E582" s="12">
+        <v>2742</v>
+      </c>
+      <c r="F582" s="11">
+        <v>1</v>
+      </c>
+      <c r="G582" s="11">
+        <v>0</v>
+      </c>
+      <c r="H582" s="11">
+        <v>0</v>
+      </c>
+      <c r="I582" s="11">
+        <v>0</v>
+      </c>
+      <c r="J582" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B583" t="s">
+        <v>615</v>
+      </c>
+      <c r="C583" s="11">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>616</v>
+      </c>
+      <c r="E583" s="12">
+        <v>161906</v>
+      </c>
+      <c r="F583" s="11">
+        <v>10</v>
+      </c>
+      <c r="G583" s="11">
+        <v>0</v>
+      </c>
+      <c r="H583" s="11">
+        <v>0</v>
+      </c>
+      <c r="I583" s="11">
+        <v>0</v>
+      </c>
+      <c r="J583" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B584" t="s">
+        <v>617</v>
+      </c>
+      <c r="C584" s="11">
+        <v>1</v>
+      </c>
+      <c r="D584" t="s">
+        <v>618</v>
+      </c>
+      <c r="E584" s="12">
+        <v>2024</v>
+      </c>
+      <c r="F584" s="11">
+        <v>1</v>
+      </c>
+      <c r="G584" s="11">
+        <v>0</v>
+      </c>
+      <c r="H584" s="11">
+        <v>0</v>
+      </c>
+      <c r="I584" s="11">
+        <v>0</v>
+      </c>
+      <c r="J584" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B585" t="s">
+        <v>619</v>
+      </c>
+      <c r="C585" s="11">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>620</v>
+      </c>
+      <c r="E585" s="12">
+        <v>3600</v>
+      </c>
+      <c r="F585" s="11">
+        <v>1</v>
+      </c>
+      <c r="G585" s="11">
+        <v>0</v>
+      </c>
+      <c r="H585" s="11">
+        <v>0</v>
+      </c>
+      <c r="I585" s="11">
+        <v>0</v>
+      </c>
+      <c r="J585" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B586" t="s">
+        <v>621</v>
+      </c>
+      <c r="C586" s="11">
+        <v>1</v>
+      </c>
+      <c r="D586" t="s">
+        <v>622</v>
+      </c>
+      <c r="E586" s="12">
+        <v>1800</v>
+      </c>
+      <c r="F586" s="11">
+        <v>1</v>
+      </c>
+      <c r="G586" s="11">
+        <v>0</v>
+      </c>
+      <c r="H586" s="11">
+        <v>0</v>
+      </c>
+      <c r="I586" s="11">
+        <v>0</v>
+      </c>
+      <c r="J586" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B587" t="s">
+        <v>623</v>
+      </c>
+      <c r="C587" s="11">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>624</v>
+      </c>
+      <c r="E587" s="12">
+        <v>3335</v>
+      </c>
+      <c r="F587" s="11">
+        <v>1</v>
+      </c>
+      <c r="G587" s="11">
+        <v>0</v>
+      </c>
+      <c r="H587" s="11">
+        <v>0</v>
+      </c>
+      <c r="I587" s="11">
+        <v>0</v>
+      </c>
+      <c r="J587" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B588" t="s">
+        <v>625</v>
+      </c>
+      <c r="C588" s="11">
+        <v>1</v>
+      </c>
+      <c r="D588" t="s">
+        <v>626</v>
+      </c>
+      <c r="E588" s="12">
+        <v>1668</v>
+      </c>
+      <c r="F588" s="11">
+        <v>1</v>
+      </c>
+      <c r="G588" s="11">
+        <v>0</v>
+      </c>
+      <c r="H588" s="11">
+        <v>0</v>
+      </c>
+      <c r="I588" s="11">
+        <v>0</v>
+      </c>
+      <c r="J588" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B589" t="s">
+        <v>627</v>
+      </c>
+      <c r="C589" s="11">
+        <v>1</v>
+      </c>
+      <c r="D589" t="s">
+        <v>628</v>
+      </c>
+      <c r="E589" s="12">
+        <v>6923</v>
+      </c>
+      <c r="F589" s="11">
+        <v>1</v>
+      </c>
+      <c r="G589" s="11">
+        <v>0</v>
+      </c>
+      <c r="H589" s="11">
+        <v>0</v>
+      </c>
+      <c r="I589" s="11">
+        <v>0</v>
+      </c>
+      <c r="J589" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B590" t="s">
+        <v>629</v>
+      </c>
+      <c r="C590" s="11">
+        <v>1</v>
+      </c>
+      <c r="D590" t="s">
+        <v>630</v>
+      </c>
+      <c r="E590" s="12">
+        <v>10385</v>
+      </c>
+      <c r="F590" s="11">
+        <v>1</v>
+      </c>
+      <c r="G590" s="11">
+        <v>0</v>
+      </c>
+      <c r="H590" s="11">
+        <v>0</v>
+      </c>
+      <c r="I590" s="11">
+        <v>0</v>
+      </c>
+      <c r="J590" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B591" t="s">
+        <v>631</v>
+      </c>
+      <c r="C591" s="11">
+        <v>1</v>
+      </c>
+      <c r="D591" t="s">
+        <v>632</v>
+      </c>
+      <c r="E591" s="12">
+        <v>2455</v>
+      </c>
+      <c r="F591" s="11">
+        <v>1</v>
+      </c>
+      <c r="G591" s="11">
+        <v>0</v>
+      </c>
+      <c r="H591" s="11">
+        <v>0</v>
+      </c>
+      <c r="I591" s="11">
+        <v>0</v>
+      </c>
+      <c r="J591" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B592" t="s">
+        <v>633</v>
+      </c>
+      <c r="C592" s="11">
+        <v>1</v>
+      </c>
+      <c r="D592" t="s">
+        <v>634</v>
+      </c>
+      <c r="E592" s="12">
+        <v>3682</v>
+      </c>
+      <c r="F592" s="11">
+        <v>1</v>
+      </c>
+      <c r="G592" s="11">
+        <v>0</v>
+      </c>
+      <c r="H592" s="11">
+        <v>0</v>
+      </c>
+      <c r="I592" s="11">
+        <v>0</v>
+      </c>
+      <c r="J592" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B593" t="s">
+        <v>635</v>
+      </c>
+      <c r="C593" s="11">
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
+        <v>636</v>
+      </c>
+      <c r="E593" s="12">
+        <v>39257</v>
+      </c>
+      <c r="F593" s="11">
+        <v>1</v>
+      </c>
+      <c r="G593" s="11">
+        <v>0</v>
+      </c>
+      <c r="H593" s="11">
+        <v>0</v>
+      </c>
+      <c r="I593" s="11">
+        <v>0</v>
+      </c>
+      <c r="J593" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B594" t="s">
+        <v>637</v>
+      </c>
+      <c r="C594" s="11">
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
+        <v>638</v>
+      </c>
+      <c r="E594" s="12">
+        <v>261711</v>
+      </c>
+      <c r="F594" s="11">
+        <v>10</v>
+      </c>
+      <c r="G594" s="11">
+        <v>0</v>
+      </c>
+      <c r="H594" s="11">
+        <v>0</v>
+      </c>
+      <c r="I594" s="11">
+        <v>0</v>
+      </c>
+      <c r="J594" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B595" t="s">
+        <v>639</v>
+      </c>
+      <c r="C595" s="11">
+        <v>1</v>
+      </c>
+      <c r="D595" t="s">
+        <v>640</v>
+      </c>
+      <c r="E595" s="12">
+        <v>47250</v>
+      </c>
+      <c r="F595" s="11">
+        <v>1</v>
+      </c>
+      <c r="G595" s="11">
+        <v>0</v>
+      </c>
+      <c r="H595" s="11">
+        <v>0</v>
+      </c>
+      <c r="I595" s="11">
+        <v>0</v>
+      </c>
+      <c r="J595" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B596" t="s">
+        <v>641</v>
+      </c>
+      <c r="C596" s="11">
+        <v>1</v>
+      </c>
+      <c r="D596" t="s">
+        <v>642</v>
+      </c>
+      <c r="E596" s="12">
+        <v>31500</v>
+      </c>
+      <c r="F596" s="11">
+        <v>1</v>
+      </c>
+      <c r="G596" s="11">
+        <v>0</v>
+      </c>
+      <c r="H596" s="11">
+        <v>0</v>
+      </c>
+      <c r="I596" s="11">
+        <v>0</v>
+      </c>
+      <c r="J596" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B597" t="s">
+        <v>643</v>
+      </c>
+      <c r="C597" s="11">
+        <v>1</v>
+      </c>
+      <c r="D597" t="s">
+        <v>644</v>
+      </c>
+      <c r="E597" s="12">
+        <v>46286</v>
+      </c>
+      <c r="F597" s="11">
+        <v>1</v>
+      </c>
+      <c r="G597" s="11">
+        <v>0</v>
+      </c>
+      <c r="H597" s="11">
+        <v>0</v>
+      </c>
+      <c r="I597" s="11">
+        <v>0</v>
+      </c>
+      <c r="J597" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B598" t="s">
+        <v>645</v>
+      </c>
+      <c r="C598" s="11">
+        <v>1</v>
+      </c>
+      <c r="D598" t="s">
+        <v>646</v>
+      </c>
+      <c r="E598" s="12">
+        <v>17000</v>
+      </c>
+      <c r="F598" s="11">
+        <v>1</v>
+      </c>
+      <c r="G598" s="11">
+        <v>0</v>
+      </c>
+      <c r="H598" s="11">
+        <v>0</v>
+      </c>
+      <c r="I598" s="11">
+        <v>0</v>
+      </c>
+      <c r="J598" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B599" t="s">
+        <v>647</v>
+      </c>
+      <c r="C599" s="11">
+        <v>1</v>
+      </c>
+      <c r="D599" t="s">
+        <v>648</v>
+      </c>
+      <c r="E599" s="12">
+        <v>34000</v>
+      </c>
+      <c r="F599" s="11">
+        <v>1</v>
+      </c>
+      <c r="G599" s="11">
+        <v>0</v>
+      </c>
+      <c r="H599" s="11">
+        <v>0</v>
+      </c>
+      <c r="I599" s="11">
+        <v>0</v>
+      </c>
+      <c r="J599" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B600" t="s">
+        <v>649</v>
+      </c>
+      <c r="C600" s="11">
+        <v>1</v>
+      </c>
+      <c r="D600" t="s">
+        <v>650</v>
+      </c>
+      <c r="E600" s="12">
+        <v>11278</v>
+      </c>
+      <c r="F600" s="11">
+        <v>1</v>
+      </c>
+      <c r="G600" s="11">
+        <v>0</v>
+      </c>
+      <c r="H600" s="11">
+        <v>0</v>
+      </c>
+      <c r="I600" s="11">
+        <v>0</v>
+      </c>
+      <c r="J600" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B601" t="s">
+        <v>651</v>
+      </c>
+      <c r="C601" s="11">
+        <v>1</v>
+      </c>
+      <c r="D601" t="s">
+        <v>652</v>
+      </c>
+      <c r="E601" s="12">
+        <v>67671</v>
+      </c>
+      <c r="F601" s="11">
+        <v>1</v>
+      </c>
+      <c r="G601" s="11">
+        <v>0</v>
+      </c>
+      <c r="H601" s="11">
+        <v>0</v>
+      </c>
+      <c r="I601" s="11">
+        <v>0</v>
+      </c>
+      <c r="J601" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B602" t="s">
+        <v>653</v>
+      </c>
+      <c r="C602" s="11">
+        <v>1</v>
+      </c>
+      <c r="D602" t="s">
+        <v>654</v>
+      </c>
+      <c r="E602" s="12">
+        <v>8882</v>
+      </c>
+      <c r="F602" s="11">
+        <v>1</v>
+      </c>
+      <c r="G602" s="11">
+        <v>0</v>
+      </c>
+      <c r="H602" s="11">
+        <v>0</v>
+      </c>
+      <c r="I602" s="11">
+        <v>0</v>
+      </c>
+      <c r="J602" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B603" t="s">
+        <v>655</v>
+      </c>
+      <c r="C603" s="11">
+        <v>1</v>
+      </c>
+      <c r="D603" t="s">
+        <v>656</v>
+      </c>
+      <c r="E603" s="12">
+        <v>13322</v>
+      </c>
+      <c r="F603" s="11">
+        <v>1</v>
+      </c>
+      <c r="G603" s="11">
+        <v>0</v>
+      </c>
+      <c r="H603" s="11">
+        <v>0</v>
+      </c>
+      <c r="I603" s="11">
+        <v>0</v>
+      </c>
+      <c r="J603" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B604" t="s">
+        <v>657</v>
+      </c>
+      <c r="C604" s="11">
+        <v>1</v>
+      </c>
+      <c r="D604" t="s">
+        <v>658</v>
+      </c>
+      <c r="E604" s="12">
+        <v>177632</v>
+      </c>
+      <c r="F604" s="11">
+        <v>10</v>
+      </c>
+      <c r="G604" s="11">
+        <v>0</v>
+      </c>
+      <c r="H604" s="11">
+        <v>0</v>
+      </c>
+      <c r="I604" s="11">
+        <v>0</v>
+      </c>
+      <c r="J604" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B605" t="s">
+        <v>659</v>
+      </c>
+      <c r="C605" s="11">
+        <v>1</v>
+      </c>
+      <c r="D605" t="s">
+        <v>660</v>
+      </c>
+      <c r="E605" s="12">
+        <v>23143</v>
+      </c>
+      <c r="F605" s="11">
+        <v>1</v>
+      </c>
+      <c r="G605" s="11">
+        <v>0</v>
+      </c>
+      <c r="H605" s="11">
+        <v>0</v>
+      </c>
+      <c r="I605" s="11">
+        <v>0</v>
+      </c>
+      <c r="J605" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B606" t="s">
+        <v>661</v>
+      </c>
+      <c r="C606" s="11">
+        <v>1</v>
+      </c>
+      <c r="D606" t="s">
+        <v>662</v>
+      </c>
+      <c r="E606" s="12">
+        <v>46286</v>
+      </c>
+      <c r="F606" s="11">
+        <v>1</v>
+      </c>
+      <c r="G606" s="11">
+        <v>0</v>
+      </c>
+      <c r="H606" s="11">
+        <v>0</v>
+      </c>
+      <c r="I606" s="11">
+        <v>0</v>
+      </c>
+      <c r="J606" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B607" t="s">
+        <v>663</v>
+      </c>
+      <c r="C607" s="11">
+        <v>1</v>
+      </c>
+      <c r="D607" t="s">
+        <v>664</v>
+      </c>
+      <c r="E607" s="12">
+        <v>40174</v>
+      </c>
+      <c r="F607" s="11">
+        <v>1</v>
+      </c>
+      <c r="G607" s="11">
+        <v>0</v>
+      </c>
+      <c r="H607" s="11">
+        <v>0</v>
+      </c>
+      <c r="I607" s="11">
+        <v>0</v>
+      </c>
+      <c r="J607" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B608" t="s">
+        <v>665</v>
+      </c>
+      <c r="C608" s="11">
+        <v>1</v>
+      </c>
+      <c r="D608" t="s">
+        <v>666</v>
+      </c>
+      <c r="E608" s="12">
+        <v>20087</v>
+      </c>
+      <c r="F608" s="11">
+        <v>1</v>
+      </c>
+      <c r="G608" s="11">
+        <v>0</v>
+      </c>
+      <c r="H608" s="11">
+        <v>0</v>
+      </c>
+      <c r="I608" s="11">
+        <v>0</v>
+      </c>
+      <c r="J608" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B609" t="s">
+        <v>667</v>
+      </c>
+      <c r="C609" s="11">
+        <v>1</v>
+      </c>
+      <c r="D609" t="s">
+        <v>668</v>
+      </c>
+      <c r="E609" s="12">
+        <v>30316</v>
+      </c>
+      <c r="F609" s="11">
+        <v>1</v>
+      </c>
+      <c r="G609" s="11">
+        <v>0</v>
+      </c>
+      <c r="H609" s="11">
+        <v>0</v>
+      </c>
+      <c r="I609" s="11">
+        <v>0</v>
+      </c>
+      <c r="J609" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B610" t="s">
+        <v>669</v>
+      </c>
+      <c r="C610" s="11">
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
+        <v>670</v>
+      </c>
+      <c r="E610" s="12">
+        <v>15158</v>
+      </c>
+      <c r="F610" s="11">
+        <v>1</v>
+      </c>
+      <c r="G610" s="11">
+        <v>0</v>
+      </c>
+      <c r="H610" s="11">
+        <v>0</v>
+      </c>
+      <c r="I610" s="11">
+        <v>0</v>
+      </c>
+      <c r="J610" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B611" t="s">
+        <v>671</v>
+      </c>
+      <c r="C611" s="11">
+        <v>1</v>
+      </c>
+      <c r="D611" t="s">
+        <v>672</v>
+      </c>
+      <c r="E611" s="12">
+        <v>45474</v>
+      </c>
+      <c r="F611" s="11">
+        <v>1</v>
+      </c>
+      <c r="G611" s="11">
+        <v>0</v>
+      </c>
+      <c r="H611" s="11">
+        <v>0</v>
+      </c>
+      <c r="I611" s="11">
+        <v>0</v>
+      </c>
+      <c r="J611" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B612" t="s">
+        <v>673</v>
+      </c>
+      <c r="C612" s="11">
+        <v>1</v>
+      </c>
+      <c r="D612" t="s">
+        <v>674</v>
+      </c>
+      <c r="E612" s="12">
+        <v>25472</v>
+      </c>
+      <c r="F612" s="11">
+        <v>1</v>
+      </c>
+      <c r="G612" s="11">
+        <v>0</v>
+      </c>
+      <c r="H612" s="11">
+        <v>0</v>
+      </c>
+      <c r="I612" s="11">
+        <v>0</v>
+      </c>
+      <c r="J612" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B613" t="s">
+        <v>675</v>
+      </c>
+      <c r="C613" s="11">
+        <v>1</v>
+      </c>
+      <c r="D613" t="s">
+        <v>676</v>
+      </c>
+      <c r="E613" s="12">
+        <v>12736</v>
+      </c>
+      <c r="F613" s="11">
+        <v>1</v>
+      </c>
+      <c r="G613" s="11">
+        <v>0</v>
+      </c>
+      <c r="H613" s="11">
+        <v>0</v>
+      </c>
+      <c r="I613" s="11">
+        <v>0</v>
+      </c>
+      <c r="J613" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B614" t="s">
+        <v>677</v>
+      </c>
+      <c r="C614" s="11">
+        <v>1</v>
+      </c>
+      <c r="D614" t="s">
+        <v>678</v>
+      </c>
+      <c r="E614" s="12">
+        <v>38208</v>
+      </c>
+      <c r="F614" s="11">
+        <v>1</v>
+      </c>
+      <c r="G614" s="11">
+        <v>0</v>
+      </c>
+      <c r="H614" s="11">
+        <v>0</v>
+      </c>
+      <c r="I614" s="11">
+        <v>0</v>
+      </c>
+      <c r="J614" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B615" t="s">
+        <v>679</v>
+      </c>
+      <c r="C615" s="11">
+        <v>1</v>
+      </c>
+      <c r="D615" t="s">
+        <v>680</v>
+      </c>
+      <c r="E615" s="12">
+        <v>12071</v>
+      </c>
+      <c r="F615" s="11">
+        <v>1</v>
+      </c>
+      <c r="G615" s="11">
+        <v>0</v>
+      </c>
+      <c r="H615" s="11">
+        <v>0</v>
+      </c>
+      <c r="I615" s="11">
+        <v>0</v>
+      </c>
+      <c r="J615" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B616" t="s">
+        <v>681</v>
+      </c>
+      <c r="C616" s="11">
+        <v>1</v>
+      </c>
+      <c r="D616" t="s">
+        <v>682</v>
+      </c>
+      <c r="E616" s="12">
+        <v>241429</v>
+      </c>
+      <c r="F616" s="11">
+        <v>10</v>
+      </c>
+      <c r="G616" s="11">
+        <v>0</v>
+      </c>
+      <c r="H616" s="11">
+        <v>0</v>
+      </c>
+      <c r="I616" s="11">
+        <v>0</v>
+      </c>
+      <c r="J616" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B617" t="s">
+        <v>683</v>
+      </c>
+      <c r="C617" s="11">
+        <v>1</v>
+      </c>
+      <c r="D617" t="s">
+        <v>684</v>
+      </c>
+      <c r="E617" s="12">
+        <v>36214</v>
+      </c>
+      <c r="F617" s="11">
+        <v>1</v>
+      </c>
+      <c r="G617" s="11">
+        <v>0</v>
+      </c>
+      <c r="H617" s="11">
+        <v>0</v>
+      </c>
+      <c r="I617" s="11">
+        <v>0</v>
+      </c>
+      <c r="J617" s="11">
         <v>0</v>
       </c>
     </row>
@@ -21903,21 +23409,21 @@
       </c>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E9" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="8" t="s">
         <v>236</v>
       </c>
@@ -21926,10 +23432,10 @@
       <c r="E10" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7" t="s">
         <v>226</v>
       </c>
